--- a/Database/Norbert/cnscbt.xlsx
+++ b/Database/Norbert/cnscbt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31DE450-0F67-4E90-8F65-750BDF8C7F44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46827DBE-0C43-44B9-969D-0A7C5F4F1C1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5750" yWindow="380" windowWidth="26950" windowHeight="19900" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
+    <workbookView xWindow="20700" yWindow="4530" windowWidth="28800" windowHeight="15460" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Evolutia saptamanala </t>
   </si>
@@ -544,7 +544,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>371</v>
+        <v>471</v>
       </c>
       <c r="E6" s="7"/>
       <c r="I6" s="4"/>
@@ -612,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>138</v>
+        <v>1238</v>
       </c>
       <c r="E7" s="6"/>
       <c r="I7" s="4"/>

--- a/Database/Norbert/cnscbt.xlsx
+++ b/Database/Norbert/cnscbt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46827DBE-0C43-44B9-969D-0A7C5F4F1C1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F156ACEC-B4BD-4FCF-B469-4E4551E4292E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20700" yWindow="4530" windowWidth="28800" windowHeight="15460" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
+    <workbookView xWindow="22480" yWindow="980" windowWidth="22220" windowHeight="18990" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>6-12-jul</t>
   </si>
   <si>
-    <t>12-19-jul</t>
-  </si>
-  <si>
     <t>20-26-jul</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>cazuri pe saptamana cscbt</t>
+  </si>
+  <si>
+    <t>13-19-jul</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +167,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -210,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,6 +233,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,269 +553,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A25325A-B1A3-4466-AE38-CB48253EE675}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="5"/>
+    <col min="1" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>12</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>144</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>144</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>471</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>471</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1238</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>1238</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2141</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>2141</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>2500</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>2450</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>2450</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>2480</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>2480</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>2100</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>2100</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1900</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>1900</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1480</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>1480</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1475</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>1475</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1120</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>1120</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>1350</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>1350</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>1490</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>1490</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>2100</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>2100</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>2201</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>2201</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>2900</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>2900</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
+        <v>3725</v>
+      </c>
+      <c r="C22">
         <v>3970</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F22" s="7"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5191</v>
+      </c>
+      <c r="C23">
+        <v>5600</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>5600</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="8">
+        <v>7763</v>
+      </c>
+      <c r="C24">
+        <v>7980</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>7980</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="8">
+        <v>9817</v>
+      </c>
+      <c r="C25">
+        <v>7656</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>7656</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E27" s="6"/>
+      <c r="B26" s="1"/>
+      <c r="C26">
+        <v>8000</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F27" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Database/Norbert/cnscbt.xlsx
+++ b/Database/Norbert/cnscbt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F156ACEC-B4BD-4FCF-B469-4E4551E4292E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE00E3C-F575-4D38-85DF-E5E95C4E1A7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22480" yWindow="980" windowWidth="22220" windowHeight="18990" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,9 +236,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,348 +557,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A25325A-B1A3-4466-AE38-CB48253EE675}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.7265625" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" style="5" customWidth="1"/>
+    <col min="1" max="3" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="9">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>12</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="9">
         <v>144</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>144</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>144</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="9">
         <v>471</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>471</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>471</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="9">
         <v>1238</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1238</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>1238</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="9">
         <v>2141</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>2141</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>2141</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="10">
+        <v>2565</v>
+      </c>
+      <c r="C9" s="1">
         <v>2500</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2500</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G9" s="6"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="10">
+        <v>2303</v>
+      </c>
+      <c r="C10" s="1">
         <v>2450</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2450</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G10" s="7"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="10">
+        <v>2377</v>
+      </c>
+      <c r="C11" s="1">
         <v>2480</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2480</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G11" s="6"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="10">
+        <v>2239</v>
+      </c>
+      <c r="C12" s="1">
         <v>2100</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2100</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G12" s="7"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="10">
+        <v>1949</v>
+      </c>
+      <c r="C13" s="1">
         <v>1900</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1900</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G13" s="6"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="10">
+        <v>1394</v>
+      </c>
+      <c r="C14" s="1">
         <v>1480</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1480</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G14" s="7"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="10">
+        <v>1388</v>
+      </c>
+      <c r="C15" s="1">
         <v>1475</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1475</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G15" s="6"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="10">
+        <v>1117</v>
+      </c>
+      <c r="C16" s="1">
         <v>1120</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1120</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G16" s="7"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="10">
+        <v>1205</v>
+      </c>
+      <c r="C17" s="1">
         <v>1350</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1350</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G17" s="6"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="10">
+        <v>1555</v>
+      </c>
+      <c r="C18" s="1">
         <v>1490</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1490</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G18" s="7"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="10">
+        <v>2124</v>
+      </c>
+      <c r="C19" s="1">
         <v>2100</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2100</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G19" s="6"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="10">
+        <v>2298</v>
+      </c>
+      <c r="C20" s="1">
         <v>2201</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2201</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G20" s="7"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="10">
+        <v>2642</v>
+      </c>
+      <c r="C21" s="1">
         <v>2900</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>2900</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G21" s="6"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="10">
+        <v>3724</v>
+      </c>
+      <c r="C22" s="8">
         <v>3725</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>3970</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G22" s="7"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="10">
         <v>5191</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
+        <v>5191</v>
+      </c>
+      <c r="D23">
         <v>5600</v>
       </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="10">
         <v>7763</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
+        <v>7763</v>
+      </c>
+      <c r="D24">
         <v>7980</v>
       </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="10">
+        <v>8107</v>
+      </c>
+      <c r="C25" s="8">
         <v>9817</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>7656</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26">
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26">
         <v>8000</v>
       </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F27" s="6"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G27" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Database/Norbert/cnscbt.xlsx
+++ b/Database/Norbert/cnscbt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE00E3C-F575-4D38-85DF-E5E95C4E1A7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13815FF-B1C9-4B1C-A263-C2CBFF8520AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="13910" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Evolutia saptamanala </t>
-  </si>
-  <si>
-    <t>17-23-feb</t>
   </si>
   <si>
     <t>24-1-feb-mar</t>
@@ -216,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,9 +230,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,414 +551,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A25325A-B1A3-4466-AE38-CB48253EE675}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="18.7265625" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="5" customWidth="1"/>
+    <col min="1" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="8">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="8">
+        <v>144</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>144</v>
-      </c>
-      <c r="C5" s="1">
-        <v>144</v>
-      </c>
-      <c r="D5">
-        <v>144</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="8">
+        <v>471</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <v>471</v>
-      </c>
-      <c r="C6" s="1">
-        <v>471</v>
-      </c>
-      <c r="D6">
-        <v>471</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="8">
+        <v>1238</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
-        <v>1238</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1238</v>
-      </c>
-      <c r="D7">
-        <v>1238</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="8">
+        <v>2141</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="9">
-        <v>2141</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2141</v>
-      </c>
-      <c r="D8">
-        <v>2141</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2565</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
-        <v>2565</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D9">
-        <v>2500</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="9">
+        <v>2303</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
-        <v>2303</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2450</v>
-      </c>
-      <c r="D10">
-        <v>2450</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="9">
+        <v>2377</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
-        <v>2377</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2480</v>
-      </c>
-      <c r="D11">
-        <v>2480</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
+        <v>2239</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
-        <v>2239</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2100</v>
-      </c>
-      <c r="D12">
-        <v>2100</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="9">
+        <v>1949</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
-        <v>1949</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1900</v>
-      </c>
-      <c r="D13">
-        <v>1900</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
+        <v>1394</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
-        <v>1394</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1480</v>
-      </c>
-      <c r="D14">
-        <v>1480</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="9">
+        <v>1388</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
-        <v>1388</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1475</v>
-      </c>
-      <c r="D15">
-        <v>1475</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="9">
+        <v>1117</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
-        <v>1117</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1120</v>
-      </c>
-      <c r="D16">
-        <v>1120</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="9">
+        <v>1205</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
-        <v>1205</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1350</v>
-      </c>
-      <c r="D17">
-        <v>1350</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="9">
+        <v>1555</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
-        <v>1555</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1490</v>
-      </c>
-      <c r="D18">
-        <v>1490</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="9">
+        <v>2124</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
-        <v>2124</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2100</v>
-      </c>
-      <c r="D19">
-        <v>2100</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="9">
+        <v>2298</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
-        <v>2298</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2201</v>
-      </c>
-      <c r="D20">
-        <v>2201</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="9">
+        <v>2642</v>
+      </c>
+      <c r="C20">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
-        <v>2642</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2900</v>
-      </c>
-      <c r="D21">
-        <v>2900</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="9">
+        <v>3724</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="9">
+        <v>5191</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
-        <v>3724</v>
-      </c>
-      <c r="C22" s="8">
-        <v>3725</v>
-      </c>
-      <c r="D22">
-        <v>3970</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="10">
-        <v>5191</v>
-      </c>
-      <c r="C23" s="8">
-        <v>5191</v>
-      </c>
-      <c r="D23">
-        <v>5600</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
+        <v>7763</v>
+      </c>
+      <c r="C23">
+        <v>29</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="10">
-        <v>7763</v>
-      </c>
-      <c r="C24" s="8">
-        <v>7763</v>
-      </c>
-      <c r="D24">
-        <v>7980</v>
-      </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="9">
+        <v>8107</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10">
-        <v>8107</v>
-      </c>
-      <c r="C25" s="8">
-        <v>9817</v>
-      </c>
-      <c r="D25">
-        <v>7656</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26">
-        <v>8000</v>
-      </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G27" s="6"/>
+      <c r="B25" s="2">
+        <v>8538</v>
+      </c>
+      <c r="C25">
+        <v>31</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Norbert/cnscbt.xlsx
+++ b/Database/Norbert/cnscbt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13815FF-B1C9-4B1C-A263-C2CBFF8520AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBF0E53-194F-429A-B19E-BE3EC7D48C47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="13910" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
+    <workbookView xWindow="18980" yWindow="1080" windowWidth="19180" windowHeight="19600" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Evolutia saptamanala </t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>13-19-jul</t>
+  </si>
+  <si>
+    <t>10-16-aug</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,6 +240,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,7 +560,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -869,10 +875,10 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="11">
         <v>8538</v>
       </c>
       <c r="C25">
@@ -881,6 +887,15 @@
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>8652</v>
+      </c>
+      <c r="C26">
+        <v>32</v>
+      </c>
       <c r="D26" s="6"/>
     </row>
   </sheetData>

--- a/Database/Norbert/cnscbt.xlsx
+++ b/Database/Norbert/cnscbt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBF0E53-194F-429A-B19E-BE3EC7D48C47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6DE2E6-9A9D-4833-B7C3-8C4BAF35DC39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18980" yWindow="1080" windowWidth="19180" windowHeight="19600" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
+    <workbookView xWindow="260" yWindow="4050" windowWidth="18360" windowHeight="15460" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t xml:space="preserve">Evolutia saptamanala </t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>10-16-aug</t>
+  </si>
+  <si>
+    <t>17-23-aug</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -212,16 +215,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -243,6 +254,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,24 +572,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A25325A-B1A3-4466-AE38-CB48253EE675}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="18.7265625" customWidth="1"/>
     <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -582,321 +597,332 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>3</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>12</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>144</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="H4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>471</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="H5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>1238</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="H6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>2141</v>
       </c>
       <c r="C7">
         <v>13</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="H7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>2565</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="H8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>2303</v>
       </c>
       <c r="C9">
         <v>15</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="H9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>2377</v>
       </c>
       <c r="C10">
         <v>16</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="H10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>2239</v>
       </c>
       <c r="C11">
         <v>17</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="H11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>1949</v>
       </c>
       <c r="C12">
         <v>18</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="H12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>1394</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="H13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>1388</v>
       </c>
       <c r="C14">
         <v>20</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="H14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>1117</v>
       </c>
       <c r="C15">
         <v>21</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="H15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>1205</v>
       </c>
       <c r="C16">
         <v>22</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="H16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>1555</v>
       </c>
       <c r="C17">
         <v>23</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="H17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>2124</v>
       </c>
       <c r="C18">
         <v>24</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="H18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>2298</v>
       </c>
       <c r="C19">
         <v>25</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="H19" s="4"/>
+      <c r="D19" s="6"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>2642</v>
       </c>
       <c r="C20">
         <v>26</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="H20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>3724</v>
       </c>
       <c r="C21">
         <v>27</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="H21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>5191</v>
       </c>
       <c r="C22">
         <v>28</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>7763</v>
       </c>
       <c r="C23">
         <v>29</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>8107</v>
       </c>
       <c r="C24">
         <v>30</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>8538</v>
       </c>
       <c r="C25">
         <v>31</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="10">
         <v>8652</v>
       </c>
       <c r="C26">
         <v>32</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="12">
+        <v>8044</v>
+      </c>
+      <c r="C27">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Norbert/cnscbt.xlsx
+++ b/Database/Norbert/cnscbt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6DE2E6-9A9D-4833-B7C3-8C4BAF35DC39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B9F0C3-445A-4A4C-B1CA-2F72BC783A86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="4050" windowWidth="18360" windowHeight="15460" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
+    <workbookView xWindow="11030" yWindow="2490" windowWidth="14400" windowHeight="9510" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Evolutia saptamanala </t>
   </si>
@@ -575,7 +575,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -918,7 +918,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="12">
-        <v>8044</v>
+        <v>8136</v>
       </c>
       <c r="C27">
         <v>33</v>

--- a/Database/Norbert/cnscbt.xlsx
+++ b/Database/Norbert/cnscbt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B9F0C3-445A-4A4C-B1CA-2F72BC783A86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B23C471-7989-4303-A69F-B5FB8F5CF55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11030" yWindow="2490" windowWidth="14400" windowHeight="9510" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Evolutia saptamanala </t>
   </si>
@@ -114,13 +115,19 @@
   </si>
   <si>
     <t>17-23-aug</t>
+  </si>
+  <si>
+    <t>24-30aug</t>
+  </si>
+  <si>
+    <t>zile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +146,12 @@
       <color rgb="FFE36EEC"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -230,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,22 +255,39 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,357 +602,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A25325A-B1A3-4466-AE38-CB48253EE675}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
     <col min="4" max="4" width="15.453125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="14"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
         <v>144</v>
       </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="13"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
         <v>471</v>
       </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="14"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
         <v>1238</v>
       </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="13"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
         <v>2141</v>
       </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="14"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="11">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
         <v>2565</v>
       </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="13"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
         <v>2303</v>
       </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="14"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="11">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
         <v>2377</v>
       </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="13"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
         <v>2239</v>
       </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="14"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="11">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
         <v>1949</v>
       </c>
-      <c r="C12">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="13"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="11">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
         <v>1394</v>
       </c>
-      <c r="C13">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="14"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="11">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
         <v>1388</v>
       </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="13"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="11">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
         <v>1117</v>
       </c>
-      <c r="C15">
-        <v>21</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="14"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="11">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
         <v>1205</v>
       </c>
-      <c r="C16">
-        <v>22</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="13"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="11">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
         <v>1555</v>
       </c>
-      <c r="C17">
-        <v>23</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="14"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="11">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
         <v>2124</v>
       </c>
-      <c r="C18">
-        <v>24</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="13"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="11">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
         <v>2298</v>
       </c>
-      <c r="C19">
-        <v>25</v>
-      </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="14"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="11">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6">
         <v>2642</v>
       </c>
-      <c r="C20">
-        <v>26</v>
-      </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="13"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="11">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6">
         <v>3724</v>
       </c>
-      <c r="C21">
-        <v>27</v>
-      </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="14"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="11">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6">
         <v>5191</v>
       </c>
-      <c r="C22">
-        <v>28</v>
-      </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="11">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6">
         <v>7763</v>
       </c>
-      <c r="C23">
-        <v>29</v>
-      </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="11">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6">
         <v>8107</v>
       </c>
-      <c r="C24">
-        <v>30</v>
-      </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="11">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7">
         <v>8538</v>
       </c>
-      <c r="C25">
-        <v>31</v>
-      </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="11">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7">
         <v>8652</v>
       </c>
-      <c r="C26">
-        <v>32</v>
-      </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
+        <v>26</v>
+      </c>
+      <c r="C27" s="10">
         <v>8136</v>
       </c>
-      <c r="C27">
-        <v>33</v>
-      </c>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="11">
+        <v>27</v>
+      </c>
+      <c r="C28" s="15">
+        <v>8136</v>
+      </c>
+      <c r="D28" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Norbert/cnscbt.xlsx
+++ b/Database/Norbert/cnscbt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B23C471-7989-4303-A69F-B5FB8F5CF55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1DC9F0-3F1A-4CE5-B00A-E1572CAF6163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
+    <workbookView xWindow="710" yWindow="5000" windowWidth="28800" windowHeight="15460" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="15">
-        <v>8136</v>
+        <v>8357</v>
       </c>
       <c r="D28" s="12"/>
     </row>

--- a/Database/Norbert/cnscbt.xlsx
+++ b/Database/Norbert/cnscbt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1DC9F0-3F1A-4CE5-B00A-E1572CAF6163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C42292C-D472-47ED-8B7B-29885204D29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="710" yWindow="5000" windowWidth="28800" windowHeight="15460" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
+    <workbookView xWindow="460" yWindow="4570" windowWidth="17070" windowHeight="16810" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Evolutia saptamanala </t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>zile</t>
+  </si>
+  <si>
+    <t>31-6sept</t>
+  </si>
+  <si>
+    <t>7-13</t>
+  </si>
+  <si>
+    <t>14-20</t>
+  </si>
+  <si>
+    <t>21-27</t>
   </si>
 </sst>
 </file>
@@ -154,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,6 +304,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -602,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A25325A-B1A3-4466-AE38-CB48253EE675}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -972,6 +993,50 @@
       </c>
       <c r="D28" s="12"/>
     </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="11">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <f>95897-87540</f>
+        <v>8357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="11">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <f>104187-95897</f>
+        <v>8290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="11">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f>113589-104187</f>
+        <v>9402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="11">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Database/Norbert/cnscbt.xlsx
+++ b/Database/Norbert/cnscbt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C42292C-D472-47ED-8B7B-29885204D29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925D54D0-D927-4C0D-8331-32FDD70F10B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="4570" windowWidth="17070" windowHeight="16810" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="30580" windowHeight="17200" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,25 +148,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF9980FF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FFE36EEC"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,12 +181,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -210,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -235,19 +217,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -261,52 +230,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -623,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A25325A-B1A3-4466-AE38-CB48253EE675}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,408 +588,488 @@
     <col min="1" max="1" width="18.7265625" customWidth="1"/>
     <col min="2" max="2" width="15.6328125" customWidth="1"/>
     <col min="3" max="3" width="18.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>12</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>144</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>471</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>1238</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>2141</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>2565</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>2303</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>2377</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>10</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>2239</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>1949</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>12</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>1394</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>13</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>1388</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>1117</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>15</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>1205</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>16</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>1555</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>17</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>2124</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>18</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>2298</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>19</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>2642</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <v>20</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>3724</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="9">
         <v>21</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>5191</v>
       </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="9">
         <v>22</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>7763</v>
       </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="9">
         <v>23</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>8107</v>
       </c>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <v>24</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>8538</v>
       </c>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="9">
         <v>25</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <v>8652</v>
       </c>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="9">
         <v>26</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>8136</v>
       </c>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="9">
         <v>27</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="10">
         <v>8357</v>
       </c>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="9">
         <v>28</v>
       </c>
       <c r="C29">
         <f>95897-87540</f>
         <v>8357</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="9">
         <v>29</v>
       </c>
       <c r="C30">
         <f>104187-95897</f>
         <v>8290</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="9">
         <v>30</v>
       </c>
       <c r="C31">
         <f>113589-104187</f>
         <v>9402</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="9">
         <v>31</v>
       </c>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Norbert/cnscbt.xlsx
+++ b/Database/Norbert/cnscbt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925D54D0-D927-4C0D-8331-32FDD70F10B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BFBD0A-9B50-43AB-B2B9-F834AEE7B7AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="30580" windowHeight="17200" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
+    <workbookView xWindow="740" yWindow="2380" windowWidth="20840" windowHeight="15460" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Evolutia saptamanala </t>
   </si>
@@ -133,13 +133,22 @@
   </si>
   <si>
     <t>21-27</t>
+  </si>
+  <si>
+    <t>28-4</t>
+  </si>
+  <si>
+    <t>5-11</t>
+  </si>
+  <si>
+    <t>12-18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +158,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,6 +276,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -580,7 +602,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -923,7 +945,8 @@
         <v>27</v>
       </c>
       <c r="C28" s="10">
-        <v>8357</v>
+        <f>87540-79330</f>
+        <v>8210</v>
       </c>
       <c r="D28"/>
     </row>
@@ -934,7 +957,7 @@
       <c r="B29" s="9">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="9">
         <f>95897-87540</f>
         <v>8357</v>
       </c>
@@ -947,7 +970,7 @@
       <c r="B30" s="9">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="9">
         <f>104187-95897</f>
         <v>8290</v>
       </c>
@@ -960,7 +983,7 @@
       <c r="B31" s="9">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="9">
         <f>113589-104187</f>
         <v>9402</v>
       </c>
@@ -973,12 +996,23 @@
       <c r="B32" s="9">
         <v>31</v>
       </c>
+      <c r="C32" s="9">
+        <f>123944-113589</f>
+        <v>10355</v>
+      </c>
       <c r="D32"/>
     </row>
     <row r="33" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
+      <c r="A33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9">
+        <v>32</v>
+      </c>
+      <c r="C33" s="14">
+        <f>139491-123944</f>
+        <v>15547</v>
+      </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
@@ -990,48 +1024,77 @@
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9">
+        <v>33</v>
+      </c>
+      <c r="C34" s="9">
+        <f>157352-139491</f>
+        <v>17861</v>
+      </c>
       <c r="D34"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="9">
+        <v>34</v>
+      </c>
       <c r="D35"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="12"/>
       <c r="D36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="12"/>
       <c r="D37"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="12"/>
       <c r="D38"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="12"/>
       <c r="D39"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="12"/>
       <c r="D40"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
       <c r="D41"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="12"/>
       <c r="D42"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="12"/>
       <c r="D43"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="12"/>
       <c r="D44"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="12"/>
       <c r="D45"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="12"/>
       <c r="D46"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="12"/>
       <c r="D47"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="13"/>
       <c r="D48"/>
     </row>
     <row r="49" spans="4:12" x14ac:dyDescent="0.35">
@@ -1072,6 +1135,7 @@
       <c r="D58"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Database/Norbert/cnscbt.xlsx
+++ b/Database/Norbert/cnscbt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BFBD0A-9B50-43AB-B2B9-F834AEE7B7AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1522FDB3-4D84-433F-B36F-39BEF141B66C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="2380" windowWidth="20840" windowHeight="15460" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
+    <workbookView xWindow="-36980" yWindow="1730" windowWidth="26960" windowHeight="15460" xr2:uid="{75068BC2-0BEC-46D9-A3D5-17D1C5936F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Evolutia saptamanala </t>
   </si>
@@ -126,22 +126,28 @@
     <t>31-6sept</t>
   </si>
   <si>
-    <t>7-13</t>
-  </si>
-  <si>
-    <t>14-20</t>
-  </si>
-  <si>
-    <t>21-27</t>
-  </si>
-  <si>
-    <t>28-4</t>
-  </si>
-  <si>
-    <t>5-11</t>
-  </si>
-  <si>
-    <t>12-18</t>
+    <t>7-13sept</t>
+  </si>
+  <si>
+    <t>14-20sept</t>
+  </si>
+  <si>
+    <t>21-27sept</t>
+  </si>
+  <si>
+    <t>28-4sept-oct</t>
+  </si>
+  <si>
+    <t>5-11oct</t>
+  </si>
+  <si>
+    <t>12-18oct</t>
+  </si>
+  <si>
+    <t>19-25oct</t>
+  </si>
+  <si>
+    <t>26-1oct-nov</t>
   </si>
 </sst>
 </file>
@@ -602,7 +608,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1046,11 +1052,15 @@
       <c r="D35"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
+      <c r="A36" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="D36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="12"/>
+      <c r="A37" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="D37"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
